--- a/posts/eyetracking-study/eyetracking-study.xlsx
+++ b/posts/eyetracking-study/eyetracking-study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/new-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/eyetracking-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50C5ECF-C164-4669-846B-3DEB17E7F9D0}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5909297F-DB05-454A-977F-DF6CE5ECD28F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>CITATION METADATA</t>
   </si>
@@ -165,15 +165,6 @@
     <t xml:space="preserve">Organism </t>
   </si>
   <si>
-    <t>Huub van den Bergh</t>
-  </si>
-  <si>
-    <t>Corina Breukink</t>
-  </si>
-  <si>
-    <t>Ewout van der Knaap</t>
-  </si>
-  <si>
     <t>Social Sciences &amp; Humanities</t>
   </si>
   <si>
@@ -229,6 +220,18 @@
   </si>
   <si>
     <t>NEW EYETRACKING STUDY: DATA</t>
+  </si>
+  <si>
+    <t>Corina Breukink (Utrecht University) - [ORCID](https://orcid.org/0000-0003-0873-0297)</t>
+  </si>
+  <si>
+    <t>Huub van den Bergh (Utrecht University) - [ORCID](https://orcid.org/0000-0002-1320-5334)</t>
+  </si>
+  <si>
+    <t>Ewout van der Knaap  (Utrecht University) - [ORCID](https://orcid.org/0000-0002-1594-2901)</t>
+  </si>
+  <si>
+    <t>[Corina Breukink](C.I.A.Breukink@uu.nl) (Utrecht University)</t>
   </si>
 </sst>
 </file>
@@ -296,13 +299,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,350 +588,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/posts/eyetracking-study/eyetracking-study.xlsx
+++ b/posts/eyetracking-study/eyetracking-study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/eyetracking-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5909297F-DB05-454A-977F-DF6CE5ECD28F}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4869B3F0-DE4D-4F9A-AEAF-69CDAD54739D}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,141 +30,18 @@
     <t>CITATION METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtitle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of Contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funding Information </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depositor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deposit Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Collection </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type </t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Production Location</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>SOCIAL SCIENCES &amp; HUMANITIES METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit of Analysis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Method </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Procedure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection Mode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Research Instrument </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characteristics of Data Collection Situation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actions to Minimize Losses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleaning Operations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response Rate </t>
-  </si>
-  <si>
     <t>DATASET TERMS</t>
   </si>
   <si>
-    <t>License/Data Use Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terms of Use </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidentiality Declaration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Permissions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restrictions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citation Requirements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions </t>
-  </si>
-  <si>
     <t>RESTRICTED FILES + TERMS OF ACCESS</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Access Place </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability Status </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Completion </t>
-  </si>
-  <si>
     <t>LIFE SCIENCES METADATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Design Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organism </t>
-  </si>
-  <si>
     <t>Social Sciences &amp; Humanities</t>
   </si>
   <si>
@@ -232,6 +109,129 @@
   </si>
   <si>
     <t>[Corina Breukink](C.I.A.Breukink@uu.nl) (Utrecht University)</t>
+  </si>
+  <si>
+    <t>**Title**</t>
+  </si>
+  <si>
+    <t>**Subtitle**</t>
+  </si>
+  <si>
+    <t>**Author**</t>
+  </si>
+  <si>
+    <t>**Point of Contact**</t>
+  </si>
+  <si>
+    <t>**Description**</t>
+  </si>
+  <si>
+    <t>**Subject**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword** </t>
+  </si>
+  <si>
+    <t>**Notes**</t>
+  </si>
+  <si>
+    <t>**Language**</t>
+  </si>
+  <si>
+    <t>**Production Location**</t>
+  </si>
+  <si>
+    <t>**Contributor**</t>
+  </si>
+  <si>
+    <t>**Funding Information**</t>
+  </si>
+  <si>
+    <t>**Depositor**</t>
+  </si>
+  <si>
+    <t>**Deposit Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Series**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unit of Analysis** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Universe** </t>
+  </si>
+  <si>
+    <t>**Time Method**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Frequency** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sampling Procedure** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Collection Mode** </t>
+  </si>
+  <si>
+    <t>**Type of Research Instrument**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Characteristics of Data Collection Situation** </t>
+  </si>
+  <si>
+    <t>**Actions to Minimize Losses**</t>
+  </si>
+  <si>
+    <t>**Cleaning Operations**</t>
+  </si>
+  <si>
+    <t>**Response Rate**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Design Type** </t>
+  </si>
+  <si>
+    <t>**Factor Type**</t>
+  </si>
+  <si>
+    <t>**Organism**</t>
+  </si>
+  <si>
+    <t>**License/Data Use Agreement**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Terms of Use** </t>
+  </si>
+  <si>
+    <t>**Confidentiality Declaration**</t>
+  </si>
+  <si>
+    <t>**Special Permissions**</t>
+  </si>
+  <si>
+    <t>**Restrictions**</t>
+  </si>
+  <si>
+    <t>**Citation Requirements**</t>
+  </si>
+  <si>
+    <t>**Conditions**</t>
+  </si>
+  <si>
+    <t>**Data Access Place**</t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t>**Study Completion**</t>
   </si>
 </sst>
 </file>
@@ -323,6 +323,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,337 +596,337 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/posts/eyetracking-study/eyetracking-study.xlsx
+++ b/posts/eyetracking-study/eyetracking-study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/eyetracking-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4869B3F0-DE4D-4F9A-AEAF-69CDAD54739D}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{1C7ADCC0-DAB4-49D6-9C8B-AB7EC327AF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F91C53-6815-46B6-9F36-189C76799D39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>CITATION METADATA</t>
   </si>
@@ -39,21 +39,9 @@
     <t>RESTRICTED FILES + TERMS OF ACCESS</t>
   </si>
   <si>
-    <t>LIFE SCIENCES METADATA</t>
-  </si>
-  <si>
-    <t>Social Sciences &amp; Humanities</t>
-  </si>
-  <si>
     <t>Dutch, English</t>
   </si>
   <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>Reading and answering processes of secondary school students for poetry and prose / Lees en antwoordprocessen van middelbare scholieren voor poezie en proza</t>
-  </si>
-  <si>
     <t>eye tracking</t>
   </si>
   <si>
@@ -66,36 +54,12 @@
     <t>secondary school students</t>
   </si>
   <si>
-    <t>March 2020 - November 2021</t>
-  </si>
-  <si>
-    <t>NWO, promotiebeurs voor leraren</t>
-  </si>
-  <si>
-    <t>Neha Moopen</t>
-  </si>
-  <si>
-    <t>quantitive (eyetracking); qualititave (interview transcripts)</t>
-  </si>
-  <si>
     <t>cross-sectional</t>
   </si>
   <si>
     <t>one session with experimental tasks</t>
   </si>
   <si>
-    <t>structured</t>
-  </si>
-  <si>
-    <t>eye tracking, audio recording</t>
-  </si>
-  <si>
-    <t>SMI RED</t>
-  </si>
-  <si>
-    <t>individuals, secondary school students from 12-18 years old (250 in total)</t>
-  </si>
-  <si>
     <t>NEW EYETRACKING STUDY: DATA</t>
   </si>
   <si>
@@ -105,9 +69,6 @@
     <t>Huub van den Bergh (Utrecht University) - [ORCID](https://orcid.org/0000-0002-1320-5334)</t>
   </si>
   <si>
-    <t>Ewout van der Knaap  (Utrecht University) - [ORCID](https://orcid.org/0000-0002-1594-2901)</t>
-  </si>
-  <si>
     <t>[Corina Breukink](C.I.A.Breukink@uu.nl) (Utrecht University)</t>
   </si>
   <si>
@@ -132,9 +93,6 @@
     <t xml:space="preserve">**Keyword** </t>
   </si>
   <si>
-    <t>**Notes**</t>
-  </si>
-  <si>
     <t>**Language**</t>
   </si>
   <si>
@@ -159,9 +117,6 @@
     <t xml:space="preserve">**Data Type** </t>
   </si>
   <si>
-    <t>**Series**</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Unit of Analysis** </t>
   </si>
   <si>
@@ -174,9 +129,6 @@
     <t xml:space="preserve">**Frequency** </t>
   </si>
   <si>
-    <t xml:space="preserve">**Sampling Procedure** </t>
-  </si>
-  <si>
     <t xml:space="preserve">**Collection Mode** </t>
   </si>
   <si>
@@ -192,18 +144,6 @@
     <t>**Cleaning Operations**</t>
   </si>
   <si>
-    <t>**Response Rate**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Design Type** </t>
-  </si>
-  <si>
-    <t>**Factor Type**</t>
-  </si>
-  <si>
-    <t>**Organism**</t>
-  </si>
-  <si>
     <t>**License/Data Use Agreement**</t>
   </si>
   <si>
@@ -232,6 +172,117 @@
   </si>
   <si>
     <t>**Study Completion**</t>
+  </si>
+  <si>
+    <t>**Persistent Identifier**</t>
+  </si>
+  <si>
+    <t>doi:[10.34894/RU8RFG](https://doi.org/10.34894/RU8RFG)</t>
+  </si>
+  <si>
+    <t>Reading &amp; Answering Processes of Secondary School Students for Poetry &amp; Prose</t>
+  </si>
+  <si>
+    <t>An eye-track study</t>
+  </si>
+  <si>
+    <t>With four comprehension reading tasks for poetry and four for prose, eye movement registrations were used to study reading and response processes for poetry and prose among 38 students in grades 8, 10 and 12 of secondary school. First, the time taken by a student to read a line of text for the first time (area of interest, abbreviated as AOI) was measured. This reading measure - the Initial Reading Time, i.e. 'first pass first gaze' - is an indication of the extent to which the explicit text content (textbase) is processed. In all grades, the Initial Reading Time for the reading process shows little difference between poetry and prose. Secondly, the extent to which the Total Reading Time in an AOI differs between poetry and prose was examined. The Total Reading Time represents all the times that a reader has looked back at a line of text, making this reading measure an indication of the construction of a situation model of a text. The Total Reading Time for the reading process shows significant differences between poetry and prose. Students need more time to construct a situation model of a poetry text compared to a prose text. Furthermore, the Total Reading Time for the reading process of poetry and prose, significant differences have also been demonstrated between grades 8 &amp; 12, while the values for year four fall between these two extremes. 12th graders make (more) effort to build a situation model from a poetry text by connecting parts of the text to each other and to their background knowledge. For the response process, the Total Reading Times between poetry and prose differ significantly for an average text-before-question AOI. After reading a question, 10th and 12th graders spend considerably more time reading a text-after-question poetry AOI. The reading process, as measured, does not appear to be related to answering text comprehension questions; no difference can be demonstrated in the reading process of students who answer a question correctly and students who answer a question incorrect. The longer reading times for poetry text AOIs compared to prose text AOIs are supported by findings from the interviews, namely that students from all grades find the poetry texts more difficult than the prose texts. (2025-12-16)</t>
+  </si>
+  <si>
+    <t>Arts &amp; Humanities; Social Sciences</t>
+  </si>
+  <si>
+    <t>**Related Publication**</t>
+  </si>
+  <si>
+    <t>Is Supplement To: Breukink, C. (2024). Aandacht voor het leesproces: Onderzoek naar een leesprogramma voor poëzie en proza, gebaseerd op eye movement modeling examples van peers, voor leerlingen in de havo- en vwo-bovenbouw . [Doctoral thesis 1 (Research UU / Graduation UU), Universiteit Utrecht]. Utrecht University. doi: &lt;https://doi.org/10.33540/2522&gt;</t>
+  </si>
+  <si>
+    <t>Zeist, The Netherlands</t>
+  </si>
+  <si>
+    <t>Researcher: Breukink, Corina</t>
+  </si>
+  <si>
+    <t>Supervisor: van den Bergh, Huub</t>
+  </si>
+  <si>
+    <t>Nederlandse Organisatie voor Wetenschappelijk Onderzoek (NWO): Promotiebeurs voor Leraren (023.011.07)</t>
+  </si>
+  <si>
+    <t>**Distribution Date**</t>
+  </si>
+  <si>
+    <t>Moopen, Neha</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _Start Date_: 2020-03-01; _End Date_: 2021-11-01</t>
+  </si>
+  <si>
+    <t>experimental data (recordings); experimental data (tabular); interview data (transcripts)</t>
+  </si>
+  <si>
+    <t>**Software**</t>
+  </si>
+  <si>
+    <t>Experiment Center, Version: 3.7</t>
+  </si>
+  <si>
+    <t>SMI BeGaze, Version: 3.7</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>**Characteristic of Sources**</t>
+  </si>
+  <si>
+    <t>The SMI red mobile eye-tracker (version 3.6) was used to collect the eye-tracking data.</t>
+  </si>
+  <si>
+    <t>Individuals</t>
+  </si>
+  <si>
+    <t>Secondary school students from grades 8, 10, 12. Aged 12-18, living in the Netherlands.</t>
+  </si>
+  <si>
+    <t>**Data Collector**</t>
+  </si>
+  <si>
+    <t>Breukink, Corina</t>
+  </si>
+  <si>
+    <t>**Target Sample Size**</t>
+  </si>
+  <si>
+    <t>eye-tracking experiment; stimulated recall interviews</t>
+  </si>
+  <si>
+    <t>structured (eye-tracking experiment); semi-structured (stimulated recall interviews)</t>
+  </si>
+  <si>
+    <t>The eye-tracking experiment involved self-paced reading from a laptop screen, monitored by the researcher. Thereafter, the stimulated recall interviews involved presenting the gaze replays to the participants and having them reflect on their (significant) reading patterns, such as long fixations or skipping text.</t>
+  </si>
+  <si>
+    <t>There was repeated calibration and validation of participants' gaze, as well as monitoring of the experimental process by the researcher.</t>
+  </si>
+  <si>
+    <t>**Control Operations**</t>
+  </si>
+  <si>
+    <t>To enhance data quality, participants' gaze was directed to a (starting) fixation point on every screen.</t>
+  </si>
+  <si>
+    <t>The software Fixation (Cozijn, 2006) was used to clean the data.</t>
+  </si>
+  <si>
+    <t>to be updated</t>
+  </si>
+  <si>
+    <t>The study is completed.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -292,9 +343,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -307,6 +355,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,10 +383,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,347 +648,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+      <selection pane="topRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="B49" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="B52" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
-        <v>68</v>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
